--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>2.499999999999986</v>
       </c>
-      <c r="BA2">
-        <v>2.499999999999986</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>1</v>
       </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>0.4000000000000057</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C4">
         <v>-0.2000000000000028</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="BA4">
-        <v>-0.2000000000000028</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>0.4000000000000057</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C5">
         <v>0.2999999999999829</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA5">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>0.4000000000000057</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C6">
-        <v>0.7999999999999972</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D6">
         <v>0.2000000000000028</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA6">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C7">
-        <v>0.7999999999999972</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C8">
-        <v>0.2000000000000028</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D8">
-        <v>0.09999999999999432</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E8">
         <v>-0.7999999999999972</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="BA8">
-        <v>-0.7999999999999972</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C9">
-        <v>0.09999999999999432</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999432</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C10">
-        <v>-0.1999999999999886</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000028</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E10">
-        <v>0.09999999999999432</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F10">
         <v>0.2999999999999829</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA10">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C11">
-        <v>0.5888888888888855</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D11">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E11">
-        <v>0.2999999999999829</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F11">
         <v>0.4000000000000057</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA11">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C12">
-        <v>0.5888888888888855</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D12">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E12">
-        <v>0.4000000000000057</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F12">
-        <v>0.6999999999999886</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G12">
         <v>0.5999999999999943</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA12">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>0.9400000000000006</v>
+        <v>1.749999999999993</v>
       </c>
       <c r="C13">
-        <v>0.5888888888888855</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D13">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E13">
-        <v>0.4999999999999858</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F13">
-        <v>1.200000000000003</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G13">
         <v>1.200000000000003</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>1.200000000000003</v>
       </c>
-      <c r="BA13">
-        <v>1.200000000000003</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>0.9400000000000006</v>
-      </c>
       <c r="C14">
-        <v>0.5888888888888855</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D14">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E14">
-        <v>0.6999999999999886</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F14">
-        <v>1.200000000000003</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G14">
-        <v>2.299999999999997</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>2</v>
       </c>
-      <c r="BA14">
-        <v>2</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>0.9400000000000006</v>
-      </c>
       <c r="C15">
-        <v>0.5888888888888855</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="D15">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E15">
-        <v>0.1699999999999946</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F15">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H15">
         <v>0.7999999999999972</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>0.7999999999999972</v>
       </c>
-      <c r="BA15">
-        <v>0.7999999999999972</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>0.9400000000000006</v>
-      </c>
-      <c r="C16">
-        <v>0.5888888888888855</v>
-      </c>
       <c r="D16">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E16">
-        <v>0.1699999999999946</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F16">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G16">
-        <v>1.200000000000003</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I16">
         <v>1.599999999999994</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>1.599999999999994</v>
       </c>
-      <c r="BA16">
-        <v>1.599999999999994</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.5888888888888855</v>
-      </c>
       <c r="D17">
-        <v>0.4666666666666622</v>
+        <v>0.6333333333333281</v>
       </c>
       <c r="E17">
-        <v>0.1699999999999946</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F17">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G17">
-        <v>1.299999999999983</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H17">
-        <v>1.499999999999986</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I17">
         <v>1.799999999999997</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>1.799999999999997</v>
       </c>
-      <c r="BA17">
-        <v>1.799999999999997</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.5888888888888855</v>
-      </c>
-      <c r="D18">
-        <v>0.4666666666666622</v>
-      </c>
       <c r="E18">
-        <v>0.1699999999999946</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F18">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G18">
-        <v>1.499999999999986</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H18">
-        <v>1.699999999999989</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I18">
-        <v>1.799999999999997</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>1</v>
       </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.5888888888888855</v>
-      </c>
-      <c r="D19">
-        <v>0.4666666666666622</v>
-      </c>
       <c r="E19">
-        <v>0.1699999999999946</v>
+        <v>0.3749999999999964</v>
       </c>
       <c r="F19">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G19">
-        <v>0.8799999999999955</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H19">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I19">
-        <v>1.499999999999986</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J19">
         <v>0.5999999999999943</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA19">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.5888888888888855</v>
-      </c>
-      <c r="D20">
-        <v>0.4666666666666622</v>
-      </c>
-      <c r="E20">
-        <v>0.1699999999999946</v>
-      </c>
       <c r="F20">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G20">
-        <v>0.8799999999999955</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H20">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I20">
-        <v>1.499999999999986</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J20">
-        <v>0.8999999999999915</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K20">
         <v>-0.4993864180312784</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>-0.4993864180312784</v>
       </c>
-      <c r="BA20">
-        <v>-0.4993864180312784</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>0.1699999999999946</v>
-      </c>
       <c r="F21">
-        <v>0.3499999999999971</v>
+        <v>0.369999999999996</v>
       </c>
       <c r="G21">
-        <v>0.8799999999999955</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H21">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I21">
-        <v>1.400000000000006</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J21">
-        <v>1.499999999999986</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K21">
         <v>-0.2000000000000313</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>-0.2000000000000313</v>
       </c>
-      <c r="BA21">
-        <v>-0.2000000000000313</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>0.1699999999999946</v>
-      </c>
-      <c r="F22">
-        <v>0.3499999999999971</v>
-      </c>
       <c r="G22">
-        <v>0.8799999999999955</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H22">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I22">
-        <v>1.400000000000006</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J22">
-        <v>1.799999999999997</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K22">
-        <v>0.9999999999999716</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L22">
         <v>0.7063371330579002</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>0.7063371330579002</v>
       </c>
-      <c r="BA22">
-        <v>0.7063371330579002</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>0.1699999999999946</v>
-      </c>
-      <c r="F23">
-        <v>0.3499999999999971</v>
-      </c>
       <c r="G23">
-        <v>0.8799999999999955</v>
+        <v>0.1999999999999972</v>
       </c>
       <c r="H23">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I23">
-        <v>1.499999999999997</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J23">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K23">
-        <v>1.300000000000011</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L23">
         <v>0.4489068848233728</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0.4489068848233728</v>
       </c>
-      <c r="BA23">
-        <v>0.4489068848233728</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>0.1699999999999946</v>
-      </c>
-      <c r="F24">
-        <v>0.3499999999999971</v>
-      </c>
-      <c r="G24">
-        <v>0.8799999999999955</v>
-      </c>
       <c r="H24">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I24">
-        <v>1.499999999999997</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J24">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K24">
-        <v>1.299999999999969</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L24">
-        <v>1.399999999999977</v>
+        <v>0.8255857599849946</v>
       </c>
       <c r="M24">
         <v>1.408791801231501</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>1.408791801231501</v>
       </c>
-      <c r="BA24">
-        <v>1.408791801231501</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.8799999999999955</v>
-      </c>
       <c r="H25">
-        <v>0.9499999999999957</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="I25">
-        <v>1.499999999999997</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J25">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K25">
-        <v>1.300000000000011</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L25">
-        <v>1.499999999999986</v>
+        <v>0.8255857599849946</v>
       </c>
       <c r="M25">
         <v>0.5999999999999943</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA25">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.8799999999999955</v>
-      </c>
-      <c r="H26">
-        <v>0.9499999999999957</v>
-      </c>
       <c r="I26">
-        <v>1.499999999999997</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J26">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K26">
-        <v>1.299999999999983</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L26">
-        <v>1.500000000000028</v>
+        <v>0.8255857599849946</v>
       </c>
       <c r="M26">
-        <v>1.400000000000006</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N26">
         <v>1.011699570515816</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>1.011699570515816</v>
       </c>
-      <c r="BA26">
-        <v>1.011699570515816</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.8799999999999955</v>
-      </c>
-      <c r="H27">
-        <v>0.9499999999999957</v>
-      </c>
       <c r="I27">
-        <v>1.499999999999997</v>
+        <v>0.7899999999999977</v>
       </c>
       <c r="J27">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K27">
-        <v>0.8900613581968628</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L27">
         <v>0.8255857599849946</v>
       </c>
       <c r="M27">
-        <v>1.499999999999986</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N27">
         <v>0.9935161553936211</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>0.9935161553936211</v>
       </c>
-      <c r="BA27">
-        <v>0.9935161553936211</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.8799999999999955</v>
-      </c>
-      <c r="H28">
-        <v>0.9499999999999957</v>
-      </c>
-      <c r="I28">
-        <v>1.499999999999997</v>
-      </c>
       <c r="J28">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K28">
-        <v>0.8900613581968628</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L28">
         <v>0.8255857599849946</v>
       </c>
       <c r="M28">
-        <v>1.499999999999972</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N28">
-        <v>1.000000000000028</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O28">
         <v>1.302043324436823</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>1.302043324436823</v>
       </c>
-      <c r="BA28">
-        <v>1.302043324436823</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>1.499999999999997</v>
-      </c>
       <c r="J29">
-        <v>1.319999999999996</v>
+        <v>1.029999999999997</v>
       </c>
       <c r="K29">
-        <v>0.8900613581968628</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L29">
         <v>0.8255857599849946</v>
       </c>
       <c r="M29">
-        <v>1.499999999999986</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N29">
-        <v>1.099999999999952</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O29">
         <v>1.299999999999969</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>1.299999999999969</v>
       </c>
-      <c r="BA29">
-        <v>1.299999999999969</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>1.499999999999997</v>
-      </c>
-      <c r="J30">
-        <v>1.319999999999996</v>
-      </c>
       <c r="K30">
-        <v>0.8900613581968628</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L30">
         <v>0.8255857599849946</v>
       </c>
       <c r="M30">
-        <v>1.500000000000014</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N30">
-        <v>1.100000000000009</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O30">
-        <v>1.199999999999974</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P30">
         <v>0.3957849067177932</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>0.3957849067177932</v>
       </c>
-      <c r="BA30">
-        <v>0.3957849067177932</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>1.499999999999997</v>
-      </c>
-      <c r="J31">
-        <v>1.319999999999996</v>
-      </c>
       <c r="K31">
-        <v>0.8900613581968628</v>
+        <v>0.890061358196867</v>
       </c>
       <c r="L31">
         <v>0.8255857599849946</v>
       </c>
       <c r="M31">
-        <v>1.03640358191127</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N31">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O31">
-        <v>1.200000000000003</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P31">
         <v>0.4505051707104855</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>0.4505051707104855</v>
       </c>
-      <c r="BA31">
-        <v>0.4505051707104855</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>1.499999999999997</v>
-      </c>
-      <c r="J32">
-        <v>1.319999999999996</v>
-      </c>
-      <c r="K32">
-        <v>0.8900613581968628</v>
-      </c>
       <c r="L32">
         <v>0.8255857599849946</v>
       </c>
       <c r="M32">
-        <v>1.03640358191127</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N32">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O32">
-        <v>1.200000000000017</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P32">
-        <v>0.4918726750701836</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q32">
         <v>0.59458493635276</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>0.59458493635276</v>
       </c>
-      <c r="BA32">
-        <v>0.59458493635276</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.8900613581968628</v>
-      </c>
       <c r="L33">
         <v>0.8255857599849946</v>
       </c>
       <c r="M33">
-        <v>1.03640358191127</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N33">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O33">
-        <v>1.199999999999974</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P33">
-        <v>0.4581239384585416</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q33">
         <v>0.4999999999999432</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>0.4999999999999432</v>
       </c>
-      <c r="BA33">
-        <v>0.4999999999999432</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.8900613581968628</v>
-      </c>
-      <c r="L34">
-        <v>0.8255857599849946</v>
-      </c>
       <c r="M34">
-        <v>1.03640358191127</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N34">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O34">
-        <v>1.200000000000017</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P34">
-        <v>0.4999999999999858</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q34">
-        <v>0.5000000000000284</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R34">
         <v>0.6016050630459375</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>0.6016050630459375</v>
       </c>
-      <c r="BA34">
-        <v>0.6016050630459375</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.8900613581968628</v>
-      </c>
-      <c r="L35">
-        <v>0.8255857599849946</v>
-      </c>
       <c r="M35">
-        <v>1.03640358191127</v>
+        <v>0.7464649401081445</v>
       </c>
       <c r="N35">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O35">
-        <v>1.120725905034621</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P35">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q35">
-        <v>0.4999999999999716</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R35">
         <v>0.6001107530880319</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>0.6001107530880319</v>
       </c>
-      <c r="BA35">
-        <v>0.6001107530880319</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.8900613581968628</v>
-      </c>
-      <c r="L36">
-        <v>0.8255857599849946</v>
-      </c>
-      <c r="M36">
-        <v>1.03640358191127</v>
-      </c>
       <c r="N36">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O36">
-        <v>1.120725905034621</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P36">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q36">
-        <v>0.4000000000000199</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R36">
-        <v>0.6000000000000512</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S36">
         <v>0.5980962996738413</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>0.5980962996738413</v>
       </c>
-      <c r="BA36">
-        <v>0.5980962996738413</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>1.03640358191127</v>
-      </c>
       <c r="N37">
-        <v>0.8169251545022164</v>
+        <v>0.606986512699089</v>
       </c>
       <c r="O37">
-        <v>1.120725905034621</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P37">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q37">
-        <v>0.3999999999999773</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R37">
-        <v>0.5999999999999517</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S37">
         <v>0.5999999999999943</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA37">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>1.03640358191127</v>
-      </c>
-      <c r="N38">
-        <v>0.8169251545022164</v>
-      </c>
       <c r="O38">
-        <v>1.120725905034621</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P38">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q38">
-        <v>0.4000000000000057</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R38">
-        <v>0.6000000000000512</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S38">
-        <v>0.5999999999999943</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T38">
         <v>0.6486835802838442</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>0.6486835802838442</v>
       </c>
-      <c r="BA38">
-        <v>0.6486835802838442</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>1.03640358191127</v>
-      </c>
-      <c r="N39">
-        <v>0.8169251545022164</v>
-      </c>
       <c r="O39">
-        <v>1.120725905034621</v>
+        <v>0.7071908451427689</v>
       </c>
       <c r="P39">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q39">
-        <v>0.5440875013780954</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R39">
-        <v>0.5999999999999943</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S39">
-        <v>0.6000000000000512</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T39">
         <v>0.6499971057671843</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>0.6499971057671843</v>
       </c>
-      <c r="BA39">
-        <v>0.6499971057671843</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>1.03640358191127</v>
-      </c>
-      <c r="N40">
-        <v>0.8169251545022164</v>
-      </c>
-      <c r="O40">
-        <v>1.120725905034621</v>
-      </c>
       <c r="P40">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q40">
-        <v>0.5440875013780954</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R40">
-        <v>0.5999999999999801</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S40">
-        <v>0.5999999999999517</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T40">
-        <v>0.6499999999999915</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U40">
         <v>0.600949061571356</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>0.600949061571356</v>
       </c>
-      <c r="BA40">
-        <v>0.600949061571356</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>1.120725905034621</v>
-      </c>
       <c r="P41">
-        <v>0.7503545741303214</v>
+        <v>0.8617584946887277</v>
       </c>
       <c r="Q41">
-        <v>0.5440875013780954</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R41">
-        <v>0.6000000000000512</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S41">
-        <v>0.6000000000000512</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T41">
-        <v>0.6499999999999915</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U41">
         <v>0.5999999999999943</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA41">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>1.120725905034621</v>
-      </c>
-      <c r="P42">
-        <v>0.7503545741303214</v>
-      </c>
       <c r="Q42">
-        <v>0.5440875013780954</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R42">
-        <v>0.5999999999999801</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S42">
-        <v>0.5999999999999943</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T42">
-        <v>0.6499999999999915</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U42">
-        <v>0.5999999999999517</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V42">
         <v>0.9401796321600813</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>0.9401796321600813</v>
       </c>
-      <c r="BA42">
-        <v>0.9401796321600813</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>1.120725905034621</v>
-      </c>
-      <c r="P43">
-        <v>0.7503545741303214</v>
-      </c>
       <c r="Q43">
-        <v>0.5440875013780954</v>
+        <v>0.8556925865358707</v>
       </c>
       <c r="R43">
-        <v>0.5901715816133972</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S43">
-        <v>0.5899812115807791</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T43">
-        <v>0.6400000000000432</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U43">
-        <v>0.6000000000000227</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V43">
-        <v>0.9001742670336341</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W43">
         <v>0.9025026375028489</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>0.9025026375028489</v>
       </c>
-      <c r="BA43">
-        <v>0.9025026375028489</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>1.120725905034621</v>
-      </c>
-      <c r="P44">
-        <v>0.7503545741303214</v>
-      </c>
-      <c r="Q44">
-        <v>0.5440875013780954</v>
-      </c>
       <c r="R44">
-        <v>0.5901715816133972</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S44">
-        <v>0.5899812115807791</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T44">
-        <v>0.6399999999999721</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U44">
-        <v>0.5999999999999943</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V44">
-        <v>0.9000000000000057</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W44">
-        <v>0.8999999999999631</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X44">
         <v>0.9987092793436005</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>0.9987092793436005</v>
       </c>
-      <c r="BA44">
-        <v>0.9987092793436005</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.5440875013780954</v>
-      </c>
       <c r="R45">
-        <v>0.5901715816133972</v>
+        <v>0.774984988026118</v>
       </c>
       <c r="S45">
-        <v>0.5899812115807791</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T45">
-        <v>0.6400000000000432</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U45">
-        <v>0.5999999999999801</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V45">
-        <v>0.7999999999999972</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W45">
-        <v>0.7999999999999972</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X45">
-        <v>0.9000000000000057</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y45">
         <v>0.8989194962581735</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>0.8989194962581735</v>
       </c>
-      <c r="BA45">
-        <v>0.8989194962581735</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.5440875013780954</v>
-      </c>
-      <c r="R46">
-        <v>0.5901715816133972</v>
-      </c>
       <c r="S46">
-        <v>0.5899812115807791</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T46">
-        <v>0.6399999999999721</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U46">
-        <v>0.6000000000000227</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V46">
-        <v>0.7999999999999545</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W46">
-        <v>0.7999999999999829</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X46">
-        <v>0.8999999999999488</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y46">
-        <v>0.8999999999999915</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z46">
         <v>0.6</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>0.6</v>
       </c>
-      <c r="BA46">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.5440875013780954</v>
-      </c>
-      <c r="R47">
-        <v>0.5901715816133972</v>
-      </c>
       <c r="S47">
-        <v>0.5899812115807791</v>
+        <v>0.6942730454025579</v>
       </c>
       <c r="T47">
-        <v>0.6408680686051028</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U47">
-        <v>0.6099629747622345</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V47">
-        <v>0.8000000000000398</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W47">
-        <v>0.8000000000000256</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X47">
-        <v>0.8999999999999631</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y47">
-        <v>0.8998800592729737</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z47">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA47">
         <v>0.5479150381202658</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>0.5479150381202658</v>
       </c>
-      <c r="BA47">
-        <v>0.5479150381202658</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.5440875013780954</v>
-      </c>
-      <c r="R48">
-        <v>0.5901715816133972</v>
-      </c>
-      <c r="S48">
-        <v>0.5899812115807791</v>
-      </c>
       <c r="T48">
-        <v>0.6408680686051028</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U48">
-        <v>0.6099629747622345</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V48">
-        <v>0.7999999999999972</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W48">
-        <v>0.7999999999999829</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X48">
-        <v>0.9000000000000057</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y48">
-        <v>0.9000000000000057</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z48">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA48">
-        <v>0.5500000000000114</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB48">
         <v>0.5</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>0.5</v>
       </c>
-      <c r="BA48">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.5901715816133972</v>
-      </c>
-      <c r="S49">
-        <v>0.5899812115807791</v>
-      </c>
       <c r="T49">
-        <v>0.6408680686051028</v>
+        <v>0.5639367815639815</v>
       </c>
       <c r="U49">
-        <v>0.6099629747622345</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V49">
-        <v>0.8000000000000256</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W49">
-        <v>0.8000000000000398</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X49">
-        <v>0.8999999999999915</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y49">
-        <v>0.8999999999999915</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z49">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA49">
-        <v>0.5499999999999829</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB49">
-        <v>0.4</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC49">
         <v>0.7003888945527734</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>0.7003888945527734</v>
       </c>
-      <c r="BA49">
-        <v>0.7003888945527734</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.5901715816133972</v>
-      </c>
-      <c r="S50">
-        <v>0.5899812115807791</v>
-      </c>
-      <c r="T50">
-        <v>0.6408680686051028</v>
-      </c>
       <c r="U50">
-        <v>0.6099629747622345</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V50">
-        <v>0.7999999999999972</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W50">
-        <v>0.7999999999999829</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X50">
-        <v>0.8999999999999915</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y50">
-        <v>0.8999999999999488</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z50">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA50">
-        <v>0.5500000000000256</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB50">
-        <v>0.5</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC50">
-        <v>0.6999999999999602</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD50">
         <v>0.6487569224423311</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>0.6487569224423311</v>
       </c>
-      <c r="BA50">
-        <v>0.6487569224423311</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.5901715816133972</v>
-      </c>
-      <c r="S51">
-        <v>0.5899812115807791</v>
-      </c>
-      <c r="T51">
-        <v>0.6408680686051028</v>
-      </c>
       <c r="U51">
-        <v>0.6099629747622345</v>
+        <v>0.5994026799782887</v>
       </c>
       <c r="V51">
-        <v>0.8140353899193726</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W51">
-        <v>0.8142682269662899</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X51">
-        <v>0.8841391549006431</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y51">
-        <v>0.8999999999999915</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z51">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA51">
-        <v>0.5500000000000114</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB51">
-        <v>0.4</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC51">
-        <v>0.7000316462183491</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD51">
-        <v>0.6495376404138256</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE51">
         <v>0.7003348337051136</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>0.7003348337051136</v>
       </c>
-      <c r="BA51">
-        <v>0.7003348337051136</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.5901715816133972</v>
-      </c>
-      <c r="S52">
-        <v>0.5899812115807791</v>
-      </c>
-      <c r="T52">
-        <v>0.6408680686051028</v>
-      </c>
-      <c r="U52">
-        <v>0.6099629747622345</v>
-      </c>
       <c r="V52">
-        <v>0.8140353899193726</v>
+        <v>0.6339621495590209</v>
       </c>
       <c r="W52">
-        <v>0.8142682269662899</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X52">
-        <v>0.8841391549006431</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y52">
-        <v>0.8999999999999915</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z52">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA52">
-        <v>0.5500000000000114</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB52">
-        <v>0.4</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC52">
-        <v>0.7000000000000313</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD52">
-        <v>0.6510000000000389</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE52">
-        <v>0.6999999999999886</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF52">
         <v>-1</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>-1</v>
       </c>
-      <c r="BA52">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.6408680686051028</v>
-      </c>
-      <c r="U53">
-        <v>0.6099629747622345</v>
-      </c>
-      <c r="V53">
-        <v>0.8140353899193726</v>
-      </c>
       <c r="W53">
-        <v>0.8142682269662899</v>
+        <v>0.6742124133093114</v>
       </c>
       <c r="X53">
-        <v>0.8841391549006431</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y53">
-        <v>0.8999999999999915</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z53">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA53">
-        <v>0.5499999999999829</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB53">
-        <v>0.4</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC53">
-        <v>0.7000000000000171</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD53">
-        <v>0.6509999999999962</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE53">
-        <v>0.6999999999999886</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF53">
-        <v>1</v>
+        <v>0.798184409453512</v>
       </c>
       <c r="AG53">
         <v>0.798184409453512</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>0.798184409453512</v>
       </c>
-      <c r="BA53">
-        <v>0.798184409453512</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.6408680686051028</v>
-      </c>
-      <c r="U54">
-        <v>0.6099629747622345</v>
-      </c>
-      <c r="V54">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W54">
-        <v>0.8142682269662899</v>
-      </c>
       <c r="X54">
-        <v>0.8841391549006431</v>
+        <v>0.7139228349390777</v>
       </c>
       <c r="Y54">
-        <v>0.9000000000000057</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z54">
-        <v>0.6</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA54">
-        <v>0.5499999999999829</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB54">
-        <v>0.4</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC54">
-        <v>0.6999999999999602</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD54">
-        <v>0.6509999999999962</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE54">
-        <v>0.7000000000000171</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF54">
-        <v>0.8</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG54">
-        <v>0.7999999999999829</v>
+        <v>0.7972078981263451</v>
       </c>
       <c r="AH54">
         <v>0.7972078981263451</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>0.7972078981263451</v>
       </c>
-      <c r="BA54">
-        <v>0.7972078981263451</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.6408680686051028</v>
-      </c>
-      <c r="U55">
-        <v>0.6099629747622345</v>
-      </c>
-      <c r="V55">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W55">
-        <v>0.8142682269662899</v>
-      </c>
-      <c r="X55">
-        <v>0.8841391549006431</v>
-      </c>
       <c r="Y55">
-        <v>0.8998799555531065</v>
+        <v>0.7438037092560918</v>
       </c>
       <c r="Z55">
-        <v>0.6298919496258172</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA55">
-        <v>0.5896834534378448</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB55">
-        <v>0.504683453437844</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC55">
-        <v>0.6999999999999886</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD55">
-        <v>0.6509999999999962</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE55">
-        <v>0.699999999999946</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF55">
-        <v>0.6</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG55">
-        <v>0.7002682369727609</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH55">
-        <v>0.7003085496485966</v>
+        <v>0.7006632596227007</v>
       </c>
       <c r="AI55">
         <v>0.7006632596227007</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>0.7006632596227007</v>
       </c>
-      <c r="BA55">
-        <v>0.7006632596227007</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.6408680686051028</v>
-      </c>
-      <c r="U56">
-        <v>0.6099629747622345</v>
-      </c>
-      <c r="V56">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W56">
-        <v>0.8142682269662899</v>
-      </c>
-      <c r="X56">
-        <v>0.8841391549006431</v>
-      </c>
-      <c r="Y56">
-        <v>0.8998799555531065</v>
-      </c>
       <c r="Z56">
-        <v>0.6298919496258172</v>
+        <v>0.7439940792887076</v>
       </c>
       <c r="AA56">
-        <v>0.5896834534378448</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB56">
-        <v>0.504683453437844</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC56">
-        <v>0.699999999999946</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD56">
-        <v>0.650999999999982</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE56">
-        <v>0.7000000000000171</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF56">
-        <v>0.6</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG56">
-        <v>0.6999999999999886</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH56">
-        <v>0.6999999999999886</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI56">
-        <v>0.6999999999999886</v>
+        <v>0.7005260309296233</v>
       </c>
       <c r="AJ56">
         <v>0.7005260309296233</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>0.7005260309296233</v>
       </c>
-      <c r="BA56">
-        <v>0.7005260309296233</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W57">
-        <v>0.8142682269662899</v>
-      </c>
-      <c r="X57">
-        <v>0.8841391549006431</v>
-      </c>
-      <c r="Y57">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z57">
-        <v>0.6298919496258172</v>
-      </c>
       <c r="AA57">
-        <v>0.5896834534378448</v>
+        <v>0.7387855831007348</v>
       </c>
       <c r="AB57">
-        <v>0.504683453437844</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC57">
-        <v>0.7000000000000171</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD57">
-        <v>0.6510000000000247</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE57">
-        <v>0.6999999999999886</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF57">
-        <v>0.6</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG57">
-        <v>0.6999999999999886</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH57">
-        <v>0.6999999999999602</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI57">
-        <v>0.6999999999999602</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ57">
-        <v>0.6999999999999886</v>
+        <v>1.501866008463963</v>
       </c>
       <c r="AK57">
         <v>1.501866008463963</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>1.501866008463963</v>
       </c>
-      <c r="BA57">
-        <v>1.501866008463963</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W58">
-        <v>0.8142682269662899</v>
-      </c>
-      <c r="X58">
-        <v>0.8841391549006431</v>
-      </c>
-      <c r="Y58">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z58">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA58">
-        <v>0.5896834534378448</v>
-      </c>
       <c r="AB58">
-        <v>0.504683453437844</v>
+        <v>0.7239172250723505</v>
       </c>
       <c r="AC58">
-        <v>0.7000000000000171</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD58">
-        <v>0.6509999999999962</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE58">
-        <v>0.6999999999999602</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF58">
-        <v>0.6</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG58">
-        <v>0.6999999999999602</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH58">
-        <v>0.6999999999999886</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI58">
-        <v>0.7000000000000171</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ58">
-        <v>0.6999999999999886</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK58">
-        <v>1.500000000000028</v>
+        <v>1.500711092634546</v>
       </c>
       <c r="AL58">
         <v>1.500711092634546</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>1.500711092634546</v>
       </c>
-      <c r="BA58">
-        <v>1.500711092634546</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W59">
-        <v>0.8142682269662899</v>
-      </c>
-      <c r="X59">
-        <v>0.8841391549006431</v>
-      </c>
-      <c r="Y59">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z59">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA59">
-        <v>0.5896834534378448</v>
-      </c>
-      <c r="AB59">
-        <v>0.504683453437844</v>
-      </c>
       <c r="AC59">
-        <v>0.700042054077106</v>
+        <v>0.7289564039509093</v>
       </c>
       <c r="AD59">
-        <v>0.6555683457408961</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE59">
-        <v>0.6949480650700124</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF59">
-        <v>0.5249480650700218</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG59">
-        <v>0.7000000000000313</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH59">
-        <v>0.6999999999999886</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI59">
-        <v>0.7000000000000171</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ59">
-        <v>0.6999999999999886</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK59">
-        <v>1.699007269367826</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL59">
-        <v>1.69759435664723</v>
+        <v>1.397766293286139</v>
       </c>
       <c r="AM59">
         <v>1.397766293286139</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>1.397766293286139</v>
       </c>
-      <c r="BA59">
-        <v>1.397766293286139</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.8140353899193726</v>
-      </c>
-      <c r="W60">
-        <v>0.8142682269662899</v>
-      </c>
-      <c r="X60">
-        <v>0.8841391549006431</v>
-      </c>
-      <c r="Y60">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z60">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA60">
-        <v>0.5896834534378448</v>
-      </c>
-      <c r="AB60">
-        <v>0.504683453437844</v>
-      </c>
-      <c r="AC60">
-        <v>0.700042054077106</v>
-      </c>
       <c r="AD60">
-        <v>0.6555683457408961</v>
+        <v>0.7337371900380069</v>
       </c>
       <c r="AE60">
-        <v>0.6949480650700124</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF60">
-        <v>0.5249480650700218</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG60">
-        <v>0.6999999999999886</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH60">
-        <v>0.7000000000000171</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI60">
-        <v>0.7000000000000171</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ60">
-        <v>0.6999999999999602</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK60">
-        <v>1.500000000000014</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL60">
-        <v>1.500000000000028</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM60">
-        <v>1.700000000000017</v>
+        <v>0.9013714134183743</v>
       </c>
       <c r="AN60">
         <v>0.9013714134183743</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>0.9013714134183743</v>
       </c>
-      <c r="BA60">
-        <v>0.9013714134183743</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z61">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA61">
-        <v>0.5896834534378448</v>
-      </c>
-      <c r="AB61">
-        <v>0.504683453437844</v>
-      </c>
-      <c r="AC61">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD61">
-        <v>0.6555683457408961</v>
-      </c>
       <c r="AE61">
-        <v>0.6949480650700124</v>
+        <v>0.7437706734085188</v>
       </c>
       <c r="AF61">
-        <v>0.5249480650700218</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG61">
-        <v>0.6999999999999886</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH61">
-        <v>0.699999999999946</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI61">
-        <v>0.6999999999999602</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ61">
-        <v>0.6999999999999886</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK61">
-        <v>0.9999999999999716</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL61">
-        <v>0.9999999999999574</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM61">
-        <v>0.9999999999999716</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN61">
-        <v>1.200000000000045</v>
+        <v>0.4038529775848758</v>
       </c>
       <c r="AO61">
         <v>0.4038529775848758</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>0.4038529775848758</v>
       </c>
-      <c r="BA61">
-        <v>0.4038529775848758</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z62">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA62">
-        <v>0.5896834534378448</v>
-      </c>
-      <c r="AB62">
-        <v>0.504683453437844</v>
-      </c>
-      <c r="AC62">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD62">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE62">
-        <v>0.6949480650700124</v>
-      </c>
       <c r="AF62">
-        <v>0.5249480650700218</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG62">
-        <v>0.7000000000000171</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH62">
-        <v>0.6999999999999886</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI62">
-        <v>0.7000000000000171</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ62">
-        <v>0.7000000000000171</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL62">
-        <v>1.000000000000043</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM62">
-        <v>0.9000000000000057</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN62">
-        <v>1.199999999999974</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO62">
-        <v>0.4000000000000057</v>
+        <v>0.9991743200616696</v>
       </c>
       <c r="AP62">
         <v>0.9991743200616696</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>0.9991743200616696</v>
       </c>
-      <c r="BA62">
-        <v>0.9991743200616696</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z63">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA63">
-        <v>0.5896834534378448</v>
-      </c>
-      <c r="AB63">
-        <v>0.504683453437844</v>
-      </c>
-      <c r="AC63">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD63">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE63">
-        <v>0.6949480650700124</v>
-      </c>
       <c r="AF63">
-        <v>0.5249480650700218</v>
+        <v>0.539320887387577</v>
       </c>
       <c r="AG63">
-        <v>0.7198452646426219</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH63">
-        <v>0.7195700857228331</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI63">
-        <v>0.7196055567202535</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ63">
-        <v>0.7196581598132112</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK63">
-        <v>0.9000000000000057</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL63">
-        <v>0.8999999999999488</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM63">
-        <v>0.8999999999999631</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN63">
-        <v>0.9999999999999716</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO63">
-        <v>0.7993577085058945</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP63">
-        <v>0.8950267598393395</v>
+        <v>0.6350385067502629</v>
       </c>
       <c r="AQ63">
         <v>0.6350385067502629</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>0.6350385067502629</v>
       </c>
-      <c r="BA63">
-        <v>0.6350385067502629</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.8998799555531065</v>
-      </c>
-      <c r="Z64">
-        <v>0.6298919496258172</v>
-      </c>
-      <c r="AA64">
-        <v>0.5896834534378448</v>
-      </c>
-      <c r="AB64">
-        <v>0.504683453437844</v>
-      </c>
-      <c r="AC64">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD64">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE64">
-        <v>0.6949480650700124</v>
-      </c>
-      <c r="AF64">
-        <v>0.5249480650700218</v>
-      </c>
       <c r="AG64">
-        <v>0.7198452646426219</v>
+        <v>0.5191707492658514</v>
       </c>
       <c r="AH64">
-        <v>0.7195700857228331</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI64">
-        <v>0.7196055567202535</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ64">
-        <v>0.7196581598132112</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK64">
-        <v>0.8999999999999915</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL64">
-        <v>0.9000000000000057</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM64">
-        <v>0.9000000000000057</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN64">
-        <v>0.9000000000000057</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO64">
-        <v>0.8000656869509868</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP64">
-        <v>0.9003962900060856</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ64">
-        <v>0.7182009411999672</v>
+        <v>0.2134433935270721</v>
       </c>
       <c r="AR64">
         <v>0.2134433935270721</v>
@@ -8980,61 +8335,43 @@
       <c r="AZ64">
         <v>0.2134433935270721</v>
       </c>
-      <c r="BA64">
-        <v>0.2134433935270721</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD65">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE65">
-        <v>0.6949480650700124</v>
-      </c>
-      <c r="AF65">
-        <v>0.5249480650700218</v>
-      </c>
-      <c r="AG65">
-        <v>0.7198452646426219</v>
-      </c>
       <c r="AH65">
-        <v>0.7195700857228331</v>
+        <v>0.4993451256023042</v>
       </c>
       <c r="AI65">
-        <v>0.7196055567202535</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ65">
-        <v>0.7196581598132112</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK65">
-        <v>0.8999999999999631</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL65">
-        <v>0.8999999999999915</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM65">
-        <v>0.4999999999999858</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN65">
-        <v>0.7999999999999829</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO65">
-        <v>1.000131837664966</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP65">
-        <v>0.9004047574160126</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ65">
-        <v>0.8022776516546202</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR65">
-        <v>0.4667440477391409</v>
+        <v>0.3629264220863746</v>
       </c>
       <c r="AS65">
         <v>0.3629264220863746</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>0.3629264220863746</v>
       </c>
-      <c r="BA65">
-        <v>0.3629264220863746</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD66">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE66">
-        <v>0.6949480650700124</v>
-      </c>
-      <c r="AF66">
-        <v>0.5249480650700218</v>
-      </c>
-      <c r="AG66">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH66">
-        <v>0.7195700857228331</v>
-      </c>
       <c r="AI66">
-        <v>0.7196055567202535</v>
+        <v>0.5093977286952664</v>
       </c>
       <c r="AJ66">
-        <v>0.7196581598132112</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK66">
-        <v>0.9000000000000057</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL66">
-        <v>0.9000000000000057</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM66">
-        <v>0.4999999999999858</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN66">
-        <v>0.8000000000000682</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO66">
-        <v>1.000153323570615</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP66">
-        <v>0.8005430470243056</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ66">
-        <v>0.9167187047088845</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR66">
-        <v>1.335031612109788</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS66">
-        <v>0.9642929337613708</v>
+        <v>0.3091193133532926</v>
       </c>
       <c r="AT66">
         <v>0.3091193133532926</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>0.3091193133532926</v>
       </c>
-      <c r="BA66">
-        <v>0.3091193133532926</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD67">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE67">
-        <v>0.6949480650700124</v>
-      </c>
-      <c r="AF67">
-        <v>0.5249480650700218</v>
-      </c>
-      <c r="AG67">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH67">
-        <v>0.7195700857228331</v>
-      </c>
-      <c r="AI67">
-        <v>0.7196055567202535</v>
-      </c>
       <c r="AJ67">
-        <v>0.7196581598132112</v>
+        <v>0.6047928257296362</v>
       </c>
       <c r="AK67">
-        <v>1.180087327783177</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL67">
-        <v>1.180017145774572</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM67">
-        <v>1.080034339438458</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN67">
-        <v>1.120171480780307</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO67">
-        <v>0.9998040334883882</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP67">
-        <v>0.7992963585523114</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ67">
-        <v>0.8329128001392689</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR67">
-        <v>1.16665999777301</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS67">
-        <v>1.337665384009014</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT67">
-        <v>0.6274244459322063</v>
+        <v>0.6338683484835599</v>
       </c>
       <c r="AU67">
         <v>0.6338683484835599</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>0.6338683484835599</v>
       </c>
-      <c r="BA67">
-        <v>0.6338683484835599</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.700042054077106</v>
-      </c>
-      <c r="AD68">
-        <v>0.6555683457408961</v>
-      </c>
-      <c r="AE68">
-        <v>0.6949480650700124</v>
-      </c>
-      <c r="AF68">
-        <v>0.5249480650700218</v>
-      </c>
-      <c r="AG68">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH68">
-        <v>0.7195700857228331</v>
-      </c>
-      <c r="AI68">
-        <v>0.7196055567202535</v>
-      </c>
-      <c r="AJ68">
-        <v>0.7196581598132112</v>
-      </c>
       <c r="AK68">
-        <v>1.180087327783177</v>
+        <v>0.7048639349930909</v>
       </c>
       <c r="AL68">
-        <v>1.180017145774572</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM68">
-        <v>1.080034339438458</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN68">
-        <v>1.120171480780307</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO68">
-        <v>0.7999999999999545</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP68">
-        <v>0.8000000000000398</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ68">
-        <v>0.8147481321371828</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR68">
-        <v>0.9823715259346955</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS68">
-        <v>1.000069783515329</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT68">
-        <v>0.5991952548525461</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU68">
-        <v>0.6014040468987218</v>
+        <v>0.2985013435050234</v>
       </c>
       <c r="AV68">
         <v>0.2985013435050234</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>0.2985013435050234</v>
       </c>
-      <c r="BA68">
-        <v>0.2985013435050234</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH69">
-        <v>0.7195700857228331</v>
-      </c>
-      <c r="AI69">
-        <v>0.7196055567202535</v>
-      </c>
-      <c r="AJ69">
-        <v>0.7196581598132112</v>
-      </c>
-      <c r="AK69">
-        <v>1.180087327783177</v>
-      </c>
       <c r="AL69">
-        <v>1.180017145774572</v>
+        <v>0.7746016748664275</v>
       </c>
       <c r="AM69">
-        <v>1.080034339438458</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN69">
-        <v>1.120171480780307</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO69">
-        <v>0.4999999999999858</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP69">
-        <v>0.7999999999999545</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ69">
-        <v>0.8150039172876546</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR69">
-        <v>0.8995365693423025</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS69">
-        <v>0.9478928276026153</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT69">
-        <v>0.5995360311091531</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU69">
-        <v>0.6007414530330664</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV69">
-        <v>0.3999999999999773</v>
+        <v>0.2049602221247682</v>
       </c>
       <c r="AW69">
         <v>0.2049602221247682</v>
@@ -9368,64 +8615,43 @@
       <c r="AZ69">
         <v>0.2049602221247682</v>
       </c>
-      <c r="BA69">
-        <v>0.2049602221247682</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH70">
-        <v>0.7195700857228331</v>
-      </c>
-      <c r="AI70">
-        <v>0.7196055567202535</v>
-      </c>
-      <c r="AJ70">
-        <v>0.7196581598132112</v>
-      </c>
-      <c r="AK70">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL70">
-        <v>1.180017145774572</v>
-      </c>
       <c r="AM70">
-        <v>1.080034339438458</v>
+        <v>0.7998631239640317</v>
       </c>
       <c r="AN70">
-        <v>1.120171480780307</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO70">
-        <v>0.4999999999999858</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP70">
-        <v>0.7999999999999972</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ70">
-        <v>0.8189609930567201</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR70">
-        <v>0.907663990738655</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS70">
-        <v>0.7646891368533488</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT70">
-        <v>0.6001285167961328</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU70">
-        <v>0.6042290026468038</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV70">
-        <v>0.7653360362291863</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW70">
-        <v>0.5000000000000142</v>
+        <v>0.6878071214384534</v>
       </c>
       <c r="AX70">
         <v>0.6878071214384534</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>0.6878071214384534</v>
       </c>
-      <c r="BA70">
-        <v>0.6878071214384534</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH71">
-        <v>0.7195700857228331</v>
-      </c>
-      <c r="AI71">
-        <v>0.7196055567202535</v>
-      </c>
-      <c r="AJ71">
-        <v>0.7196581598132112</v>
-      </c>
-      <c r="AK71">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL71">
-        <v>1.180017145774572</v>
-      </c>
-      <c r="AM71">
-        <v>1.080034339438458</v>
-      </c>
       <c r="AN71">
-        <v>1.120171480780307</v>
+        <v>0.7702149383520079</v>
       </c>
       <c r="AO71">
-        <v>0.7203365567765658</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP71">
-        <v>0.8098694510484592</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ71">
-        <v>0.7756888944581106</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR71">
-        <v>0.8009516941561472</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS71">
-        <v>0.5992590241756375</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT71">
-        <v>0.6003338857764078</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU71">
-        <v>0.5961215496492684</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV71">
-        <v>0.7635173704714617</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW71">
-        <v>0.7938925166093753</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX71">
-        <v>0.6755639417497861</v>
+        <v>0.5782185388409715</v>
       </c>
       <c r="AY71">
         <v>0.5782185388409715</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>0.5782185388409715</v>
       </c>
-      <c r="BA71">
-        <v>0.5782185388409715</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.7198452646426219</v>
-      </c>
-      <c r="AH72">
-        <v>0.7195700857228331</v>
-      </c>
-      <c r="AI72">
-        <v>0.7196055567202535</v>
-      </c>
-      <c r="AJ72">
-        <v>0.7196581598132112</v>
-      </c>
-      <c r="AK72">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL72">
-        <v>1.180017145774572</v>
-      </c>
-      <c r="AM72">
-        <v>1.080034339438458</v>
-      </c>
-      <c r="AN72">
-        <v>1.120171480780307</v>
-      </c>
       <c r="AO72">
-        <v>0.7203365567765658</v>
+        <v>0.970132370358175</v>
       </c>
       <c r="AP72">
-        <v>0.8098694510484592</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ72">
-        <v>0.7756888944581106</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR72">
-        <v>0.8009516941561472</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS72">
-        <v>0.5173281499470761</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT72">
-        <v>0.5999999999999943</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU72">
-        <v>0.5999999999999517</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV72">
-        <v>0.6821893228890588</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW72">
-        <v>0.7999999999999972</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX72">
-        <v>0.5845992779903213</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY72">
-        <v>0.5847826431909766</v>
+        <v>0.5490590963348296</v>
       </c>
       <c r="AZ72">
         <v>0.5490590963348296</v>
       </c>
-      <c r="BA72">
-        <v>0.5490590963348296</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL73">
-        <v>1.180017145774572</v>
-      </c>
-      <c r="AM73">
-        <v>1.080034339438458</v>
-      </c>
-      <c r="AN73">
-        <v>1.120171480780307</v>
-      </c>
-      <c r="AO73">
-        <v>0.7203365567765658</v>
-      </c>
       <c r="AP73">
-        <v>0.8098694510484592</v>
+        <v>0.95381778008785</v>
       </c>
       <c r="AQ73">
-        <v>0.7756888944581106</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR73">
-        <v>0.8009516941561472</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS73">
-        <v>0.4179220328589111</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT73">
-        <v>0.5999999999999943</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU73">
-        <v>0.6000000000000512</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV73">
-        <v>0.5822038621785168</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW73">
-        <v>0.5999999999999801</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX73">
-        <v>0.5538366934973169</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY73">
-        <v>0.5999999999999943</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ73">
-        <v>0.7337840715673707</v>
-      </c>
-      <c r="BA73">
         <v>0.7477535645244302</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL74">
-        <v>1.180017145774572</v>
-      </c>
-      <c r="AM74">
-        <v>1.080034339438458</v>
-      </c>
-      <c r="AN74">
-        <v>1.120171480780307</v>
-      </c>
-      <c r="AO74">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP74">
-        <v>0.8098694510484592</v>
-      </c>
       <c r="AQ74">
-        <v>0.7756888944581106</v>
+        <v>0.8954413296279228</v>
       </c>
       <c r="AR74">
-        <v>0.8009516941561472</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS74">
-        <v>0.4179144891355122</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT74">
-        <v>0.6000000000000227</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU74">
-        <v>0.5999999999999943</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV74">
-        <v>0.5822184066128955</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW74">
-        <v>0.5999999999999943</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX74">
-        <v>0.4693021516667102</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY74">
-        <v>0.5999999999999801</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ74">
-        <v>0.7198237150127369</v>
-      </c>
-      <c r="BA74">
-        <v>0.7499924531742437</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL75">
-        <v>1.180017145774572</v>
-      </c>
-      <c r="AM75">
-        <v>1.080034339438458</v>
-      </c>
-      <c r="AN75">
-        <v>1.120171480780307</v>
-      </c>
-      <c r="AO75">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP75">
-        <v>0.8098694510484592</v>
-      </c>
-      <c r="AQ75">
-        <v>0.7756888944581106</v>
-      </c>
       <c r="AR75">
-        <v>0.8009516941561472</v>
+        <v>0.8616676458742901</v>
       </c>
       <c r="AS75">
-        <v>0.732996018394519</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT75">
-        <v>0.5498663869906124</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU75">
-        <v>0.5508410136151085</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV75">
-        <v>0.5379880425809347</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW75">
-        <v>0.5999999999999943</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX75">
-        <v>0.3270154107631669</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY75">
-        <v>0.7695909397203309</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ75">
-        <v>0.8753955642378344</v>
-      </c>
-      <c r="BA75">
-        <v>0.9501165076806046</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>1.180087327783177</v>
-      </c>
-      <c r="AL76">
-        <v>1.180017145774572</v>
-      </c>
-      <c r="AM76">
-        <v>1.080034339438458</v>
-      </c>
-      <c r="AN76">
-        <v>1.120171480780307</v>
-      </c>
-      <c r="AO76">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP76">
-        <v>0.8098694510484592</v>
-      </c>
-      <c r="AQ76">
-        <v>0.7756888944581106</v>
-      </c>
-      <c r="AR76">
-        <v>0.8009516941561472</v>
-      </c>
       <c r="AS76">
-        <v>0.732996018394519</v>
+        <v>0.8225269741166571</v>
       </c>
       <c r="AT76">
-        <v>0.5498663869906124</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU76">
-        <v>0.5508410136151085</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV76">
-        <v>0.5379880425809347</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW76">
-        <v>0.5999999999999801</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX76">
-        <v>0.3270445095759413</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY76">
-        <v>0.7696421168766392</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ76">
-        <v>0.9605703352304999</v>
-      </c>
-      <c r="BA76">
-        <v>0.9502405619005856</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP77">
-        <v>0.8098694510484592</v>
-      </c>
-      <c r="AQ77">
-        <v>0.7756888944581106</v>
-      </c>
-      <c r="AR77">
-        <v>0.8009516941561472</v>
-      </c>
-      <c r="AS77">
-        <v>0.732996018394519</v>
-      </c>
       <c r="AT77">
-        <v>0.5498663869906124</v>
+        <v>0.7357272081186167</v>
       </c>
       <c r="AU77">
-        <v>0.5508410136151085</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV77">
-        <v>0.5379880425809347</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW77">
-        <v>0.5999999999999943</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX77">
-        <v>0.2847157187992622</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY77">
-        <v>0.7696932232956755</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ77">
-        <v>0.9607739728338913</v>
-      </c>
-      <c r="BA77">
-        <v>1.033576574201604</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP78">
-        <v>0.8098694510484592</v>
-      </c>
-      <c r="AQ78">
-        <v>0.7756888944581106</v>
-      </c>
-      <c r="AR78">
-        <v>0.8009516941561472</v>
-      </c>
-      <c r="AS78">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT78">
-        <v>0.5498663869906124</v>
-      </c>
       <c r="AU78">
-        <v>0.5508410136151085</v>
+        <v>0.6155062332056644</v>
       </c>
       <c r="AV78">
-        <v>0.5379880425809347</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW78">
-        <v>0.5999999999999943</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX78">
-        <v>0.2847286302270362</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY78">
-        <v>0.769744259023426</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ78">
-        <v>1.045733629055803</v>
-      </c>
-      <c r="BA78">
-        <v>1.033631881839852</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP79">
-        <v>0.8098694510484592</v>
-      </c>
-      <c r="AQ79">
-        <v>0.7756888944581106</v>
-      </c>
-      <c r="AR79">
-        <v>0.8009516941561472</v>
-      </c>
-      <c r="AS79">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT79">
-        <v>0.5498663869906124</v>
-      </c>
-      <c r="AU79">
-        <v>0.5508410136151085</v>
-      </c>
       <c r="AV79">
-        <v>0.5379880425809347</v>
+        <v>0.4962256260895274</v>
       </c>
       <c r="AW79">
-        <v>0.5898852738734093</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX79">
-        <v>0.4399573677832763</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY79">
-        <v>0.6334439064511216</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ79">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA79">
-        <v>1.067374524280623</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.7203365567765658</v>
-      </c>
-      <c r="AP80">
-        <v>0.8098694510484592</v>
-      </c>
-      <c r="AQ80">
-        <v>0.7756888944581106</v>
-      </c>
-      <c r="AR80">
-        <v>0.8009516941561472</v>
-      </c>
-      <c r="AS80">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT80">
-        <v>0.5498663869906124</v>
-      </c>
-      <c r="AU80">
-        <v>0.5508410136151085</v>
-      </c>
-      <c r="AV80">
-        <v>0.5379880425809347</v>
-      </c>
       <c r="AW80">
-        <v>0.5898852738734093</v>
+        <v>0.4748691968915352</v>
       </c>
       <c r="AX80">
-        <v>0.4399573677832763</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY80">
-        <v>0.6334439064511216</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ80">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA80">
-        <v>1.067596262336991</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT81">
-        <v>0.5498663869906124</v>
-      </c>
-      <c r="AU81">
-        <v>0.5508410136151085</v>
-      </c>
-      <c r="AV81">
-        <v>0.5379880425809347</v>
-      </c>
-      <c r="AW81">
-        <v>0.5898852738734093</v>
-      </c>
       <c r="AX81">
-        <v>0.4399573677832763</v>
+        <v>0.4923057530171448</v>
       </c>
       <c r="AY81">
-        <v>0.6334439064511216</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ81">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA81">
-        <v>1.233909290684949</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT82">
-        <v>0.5498663869906124</v>
-      </c>
-      <c r="AU82">
-        <v>0.5508410136151085</v>
-      </c>
-      <c r="AV82">
-        <v>0.5379880425809347</v>
-      </c>
-      <c r="AW82">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX82">
-        <v>0.4399573677832763</v>
-      </c>
       <c r="AY82">
-        <v>0.6334439064511216</v>
+        <v>0.4472942306444608</v>
       </c>
       <c r="AZ82">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA82">
-        <v>1.233964924396787</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT83">
-        <v>0.5498663869906124</v>
-      </c>
-      <c r="AU83">
-        <v>0.5508410136151085</v>
-      </c>
-      <c r="AV83">
-        <v>0.5379880425809347</v>
-      </c>
-      <c r="AW83">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX83">
-        <v>0.4399573677832763</v>
-      </c>
-      <c r="AY83">
-        <v>0.6334439064511216</v>
-      </c>
       <c r="AZ83">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA83">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.732996018394519</v>
-      </c>
-      <c r="AT84">
-        <v>0.5498663869906124</v>
-      </c>
-      <c r="AU84">
-        <v>0.5508410136151085</v>
-      </c>
-      <c r="AV84">
-        <v>0.5379880425809347</v>
-      </c>
-      <c r="AW84">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX84">
-        <v>0.4399573677832763</v>
-      </c>
-      <c r="AY84">
-        <v>0.6334439064511216</v>
-      </c>
-      <c r="AZ84">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA84">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX85">
-        <v>0.4399573677832763</v>
-      </c>
-      <c r="AY85">
-        <v>0.6334439064511216</v>
-      </c>
-      <c r="AZ85">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA85">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX86">
-        <v>0.4399573677832763</v>
-      </c>
-      <c r="AY86">
-        <v>0.6334439064511216</v>
-      </c>
-      <c r="AZ86">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA86">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX87">
-        <v>0.4399573677832763</v>
-      </c>
-      <c r="AY87">
-        <v>0.6334439064511216</v>
-      </c>
-      <c r="AZ87">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA87">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.5898852738734093</v>
-      </c>
-      <c r="AX88">
-        <v>0.4399573677832763</v>
-      </c>
-      <c r="AY88">
-        <v>0.6334439064511216</v>
-      </c>
-      <c r="AZ88">
-        <v>0.7316126266677159</v>
-      </c>
-      <c r="BA88">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>1.006815654502067</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>1.006815654502067</v>
+        <v>0.4585657364218775</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG64">
-        <v>0.798184409453512</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH64">
         <v>1.879044851730669</v>
@@ -9316,10 +9316,10 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG65">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH65">
-        <v>0.7972078981263451</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI65">
         <v>0.5891195155317774</v>
@@ -9405,13 +9405,13 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG66">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH66">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI66">
-        <v>0.7006632596227007</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ66">
         <v>-1.620076036519961</v>
@@ -9491,16 +9491,16 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG67">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH67">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI67">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ67">
-        <v>0.7005260309296233</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK67">
         <v>1.285713798234809</v>
@@ -9574,19 +9574,19 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG68">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH68">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI68">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ68">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK68">
-        <v>1.501866008463963</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL68">
         <v>0.9260365910423758</v>
@@ -9654,22 +9654,22 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG69">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH69">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI69">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ69">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK69">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL69">
-        <v>1.500711092634546</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM69">
         <v>1.323876910632023</v>
@@ -9731,25 +9731,25 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG70">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH70">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI70">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ70">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK70">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL70">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM70">
-        <v>1.397766293286139</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN70">
         <v>-2.136777872354216</v>
@@ -9805,28 +9805,28 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG71">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH71">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI71">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ71">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK71">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL71">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM71">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN71">
-        <v>0.9013714134183743</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO71">
         <v>0.7934051314956321</v>
@@ -9876,31 +9876,31 @@
         <v>0.5892230462817193</v>
       </c>
       <c r="AG72">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH72">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI72">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ72">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK72">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL72">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM72">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN72">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO72">
-        <v>0.4038529775848758</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP72">
         <v>1.029975481959951</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.3337704842182718</v>
+        <v>0.2713466417086992</v>
       </c>
       <c r="AH73">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI73">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ73">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK73">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL73">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM73">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN73">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO73">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP73">
-        <v>0.9991743200616696</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ73">
         <v>0.7043810499788776</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.3337704842182718</v>
-      </c>
       <c r="AH74">
-        <v>0.3960234625235786</v>
+        <v>0.4418565284459876</v>
       </c>
       <c r="AI74">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ74">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK74">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL74">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM74">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN74">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO74">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP74">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ74">
-        <v>0.6350385067502629</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR74">
         <v>0.1406555772994125</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.3960234625235786</v>
-      </c>
       <c r="AI75">
-        <v>0.3370496779347278</v>
+        <v>0.3760316547260388</v>
       </c>
       <c r="AJ75">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK75">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL75">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM75">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN75">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO75">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP75">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ75">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR75">
-        <v>0.2134433935270721</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS75">
         <v>0.4268111723034735</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.3370496779347278</v>
-      </c>
       <c r="AJ76">
-        <v>0.02619289937420182</v>
+        <v>0.07880619994600702</v>
       </c>
       <c r="AK76">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL76">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM76">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN76">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO76">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP76">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ76">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR76">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS76">
-        <v>0.3629264220863746</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT76">
         <v>0.3049656067824742</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.02619289937420182</v>
-      </c>
       <c r="AK77">
-        <v>0.1835325808087461</v>
+        <v>-0.01665402003765022</v>
       </c>
       <c r="AL77">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM77">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN77">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO77">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP77">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ77">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR77">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS77">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT77">
-        <v>0.3091193133532926</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU77">
         <v>0.7386451510207621</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.1835325808087461</v>
-      </c>
       <c r="AL78">
-        <v>0.1448386154986429</v>
+        <v>0.08476750623518829</v>
       </c>
       <c r="AM78">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN78">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO78">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP78">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ78">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR78">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS78">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT78">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU78">
-        <v>0.6338683484835599</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV78">
         <v>-1.147231087866345</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.1448386154986429</v>
-      </c>
       <c r="AM79">
-        <v>0.1922034876336899</v>
+        <v>0.152426858305076</v>
       </c>
       <c r="AN79">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO79">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP79">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ79">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR79">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS79">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT79">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU79">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV79">
-        <v>0.2985013435050234</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW79">
         <v>0.5563279776301044</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.1922034876336899</v>
-      </c>
       <c r="AN80">
-        <v>-0.1786603080504676</v>
+        <v>-0.1587974493923051</v>
       </c>
       <c r="AO80">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP80">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ80">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR80">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS80">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT80">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU80">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV80">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW80">
-        <v>0.2049602221247682</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX80">
         <v>0.6119095091543301</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>-0.1786603080504676</v>
-      </c>
       <c r="AO81">
-        <v>0.2997451378037809</v>
+        <v>0.01157637287417401</v>
       </c>
       <c r="AP81">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ81">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR81">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS81">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT81">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU81">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV81">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW81">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX81">
-        <v>0.6878071214384534</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY81">
         <v>-0.1750403534197602</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.2997451378037809</v>
-      </c>
       <c r="AP82">
-        <v>0.4379924174495642</v>
+        <v>0.3623573882412884</v>
       </c>
       <c r="AQ82">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR82">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS82">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT82">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU82">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV82">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW82">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX82">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY82">
-        <v>0.5782185388409715</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ82">
         <v>2.014657057377804</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.4379924174495642</v>
-      </c>
       <c r="AQ83">
-        <v>0.386963432307222</v>
+        <v>0.4099650277594762</v>
       </c>
       <c r="AR83">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS83">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT83">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU83">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV83">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW83">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX83">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY83">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ83">
-        <v>0.5490590963348296</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA83">
         <v>1.176666004305858</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.386963432307222</v>
-      </c>
       <c r="AR84">
-        <v>0.3536980436187619</v>
+        <v>0.3374972224452378</v>
       </c>
       <c r="AS84">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT84">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU84">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV84">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW84">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX84">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY84">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ84">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA84">
-        <v>0.7477535645244302</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.3536980436187619</v>
-      </c>
       <c r="AS85">
-        <v>0.4950052551780787</v>
+        <v>0.1998573601387449</v>
       </c>
       <c r="AT85">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU85">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV85">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW85">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX85">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY85">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ85">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA85">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.4950052551780787</v>
-      </c>
       <c r="AT86">
-        <v>0.3663696072552924</v>
+        <v>0.4421719156991075</v>
       </c>
       <c r="AU86">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV86">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW86">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX86">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY86">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ86">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA86">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.3663696072552924</v>
-      </c>
       <c r="AU87">
-        <v>0.3761139136391747</v>
+        <v>0.4067593591510089</v>
       </c>
       <c r="AV87">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW87">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX87">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY87">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ87">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA87">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.3761139136391747</v>
-      </c>
       <c r="AV88">
-        <v>0.09301293375344381</v>
+        <v>0.1980039700041842</v>
       </c>
       <c r="AW88">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX88">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY88">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ88">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA88">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.09301293375344381</v>
-      </c>
       <c r="AW89">
-        <v>0.4078219865430085</v>
+        <v>0.375423812546775</v>
       </c>
       <c r="AX89">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY89">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ89">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA89">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.4078219865430085</v>
-      </c>
       <c r="AX90">
-        <v>0.4373327492186546</v>
+        <v>0.4485169152459647</v>
       </c>
       <c r="AY90">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ90">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA90">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.4373327492186546</v>
-      </c>
       <c r="AY91">
-        <v>0.300310380860067</v>
+        <v>0.3463959436011577</v>
       </c>
       <c r="AZ91">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA91">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.300310380860067</v>
-      </c>
       <c r="AZ92">
-        <v>0.4343819553590336</v>
+        <v>0.4490616113391965</v>
       </c>
       <c r="BA92">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.4343819553590336</v>
-      </c>
       <c r="BA93">
-        <v>0.5912336698163202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.5912336698163202</v>
+        <v>0.3527767454037387</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>2.672233110627005</v>
       </c>
+      <c r="BB2">
+        <v>2.672233110627005</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>-0.2486584437591262</v>
       </c>
+      <c r="BB3">
+        <v>-0.2486584437591262</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>2.48444986756347</v>
       </c>
+      <c r="BB4">
+        <v>2.48444986756347</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>1.924160321525846</v>
       </c>
+      <c r="BB5">
+        <v>1.924160321525846</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>1.36313906046999</v>
       </c>
+      <c r="BB6">
+        <v>1.36313906046999</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>-4.856442119446953</v>
       </c>
+      <c r="BB7">
+        <v>-4.856442119446953</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>1.575066711296429</v>
       </c>
+      <c r="BB8">
+        <v>1.575066711296429</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>1.814138146527952</v>
       </c>
+      <c r="BB9">
+        <v>1.814138146527952</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>0.4238544839342779</v>
       </c>
+      <c r="BB10">
+        <v>0.4238544839342779</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>-0.1584284749490763</v>
       </c>
+      <c r="BB11">
+        <v>-0.1584284749490763</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>0.4882046181590169</v>
       </c>
+      <c r="BB12">
+        <v>0.4882046181590169</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>1.53878081519332</v>
       </c>
+      <c r="BB13">
+        <v>1.53878081519332</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>0.8692906535860487</v>
       </c>
+      <c r="BB14">
+        <v>0.8692906535860487</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>3.11595497587993</v>
       </c>
+      <c r="BB15">
+        <v>3.11595497587993</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>0.3906876693375665</v>
       </c>
+      <c r="BB16">
+        <v>0.3906876693375665</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>1.221836833579857</v>
       </c>
+      <c r="BB17">
+        <v>1.221836833579857</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>1.653194230429179</v>
       </c>
+      <c r="BB18">
+        <v>1.653194230429179</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>-1.198649426118308</v>
       </c>
+      <c r="BB19">
+        <v>-1.198649426118308</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>0.7741673943688596</v>
       </c>
+      <c r="BB20">
+        <v>0.7741673943688596</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>0.8244429407371285</v>
       </c>
+      <c r="BB21">
+        <v>0.8244429407371285</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>-0.3344927361763723</v>
       </c>
+      <c r="BB22">
+        <v>-0.3344927361763723</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0.7295104243506501</v>
       </c>
+      <c r="BB23">
+        <v>0.7295104243506501</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>0.03704431742310987</v>
       </c>
+      <c r="BB24">
+        <v>0.03704431742310987</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>0.2220551683158618</v>
       </c>
+      <c r="BB25">
+        <v>0.2220551683158618</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>0.1661617031019347</v>
       </c>
+      <c r="BB26">
+        <v>0.1661617031019347</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>1.924586088852507</v>
       </c>
+      <c r="BB27">
+        <v>1.924586088852507</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>0.5703441042800677</v>
       </c>
+      <c r="BB28">
+        <v>0.5703441042800677</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>0.5671096279522487</v>
       </c>
+      <c r="BB29">
+        <v>0.5671096279522487</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>0.6731221874372437</v>
       </c>
+      <c r="BB30">
+        <v>0.6731221874372437</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>0.8295169162459786</v>
       </c>
+      <c r="BB31">
+        <v>0.8295169162459786</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>0.363674885967896</v>
       </c>
+      <c r="BB32">
+        <v>0.363674885967896</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>0.6363538952886927</v>
       </c>
+      <c r="BB33">
+        <v>0.6363538952886927</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>0.4303070273019074</v>
       </c>
+      <c r="BB34">
+        <v>0.4303070273019074</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>0.907245662456674</v>
       </c>
+      <c r="BB35">
+        <v>0.907245662456674</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>0.7278878628511336</v>
       </c>
+      <c r="BB36">
+        <v>0.7278878628511336</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>0.5936080878907575</v>
       </c>
+      <c r="BB37">
+        <v>0.5936080878907575</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>0.3249989166702818</v>
       </c>
+      <c r="BB38">
+        <v>0.3249989166702818</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>2.043550613228959</v>
       </c>
+      <c r="BB39">
+        <v>2.043550613228959</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>0.867287375484608</v>
       </c>
+      <c r="BB40">
+        <v>0.867287375484608</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>0.6331942894404392</v>
       </c>
+      <c r="BB41">
+        <v>0.6331942894404392</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>-0.05439614307451279</v>
       </c>
+      <c r="BB42">
+        <v>-0.05439614307451279</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>0.1739459843577862</v>
       </c>
+      <c r="BB43">
+        <v>0.1739459843577862</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>1.255538557350434</v>
       </c>
+      <c r="BB44">
+        <v>1.255538557350434</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>1.090483027535811</v>
       </c>
+      <c r="BB45">
+        <v>1.090483027535811</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>1.226659036647675</v>
       </c>
+      <c r="BB46">
+        <v>1.226659036647675</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>-0.5</v>
       </c>
+      <c r="BB47">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>0.9</v>
       </c>
+      <c r="BB48">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>1</v>
       </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>1.1</v>
       </c>
+      <c r="BB50">
+        <v>1.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>-2.477834671711193</v>
       </c>
+      <c r="BB51">
+        <v>-2.477834671711193</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>0.2428240279789122</v>
       </c>
+      <c r="BB52">
+        <v>0.2428240279789122</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>0.8650544612728055</v>
       </c>
+      <c r="BB53">
+        <v>0.8650544612728055</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>0.05143518179183104</v>
       </c>
+      <c r="BB54">
+        <v>0.05143518179183104</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>-2.588552528306963</v>
       </c>
+      <c r="BB55">
+        <v>-2.588552528306963</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>1.067142397791443</v>
       </c>
+      <c r="BB56">
+        <v>1.067142397791443</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>0.9403228036019016</v>
       </c>
+      <c r="BB57">
+        <v>0.9403228036019016</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>1.348411706012428</v>
       </c>
+      <c r="BB58">
+        <v>1.348411706012428</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>-0.1190215178375666</v>
       </c>
+      <c r="BB59">
+        <v>-0.1190215178375666</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>0.7996487817115536</v>
       </c>
+      <c r="BB60">
+        <v>0.7996487817115536</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>1.039074166251879</v>
       </c>
+      <c r="BB61">
+        <v>1.039074166251879</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>0.6958556561364588</v>
       </c>
+      <c r="BB62">
+        <v>0.6958556561364588</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>-1.636815679601384</v>
       </c>
+      <c r="BB63">
+        <v>-1.636815679601384</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>-0.04357278727286484</v>
       </c>
+      <c r="BB64">
+        <v>-0.04357278727286484</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>0.3050453114869214</v>
       </c>
+      <c r="BB65">
+        <v>0.3050453114869214</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>0.7386451510207621</v>
       </c>
+      <c r="BB66">
+        <v>0.7386451510207621</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>1.021259612058628</v>
       </c>
+      <c r="BB67">
+        <v>1.021259612058628</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>0.5487159577757694</v>
       </c>
+      <c r="BB68">
+        <v>0.5487159577757694</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>0.6800497182067176</v>
       </c>
+      <c r="BB69">
+        <v>0.6800497182067176</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>0.1667761162031525</v>
       </c>
+      <c r="BB70">
+        <v>0.1667761162031525</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>0.5709980498538272</v>
       </c>
+      <c r="BB71">
+        <v>0.5709980498538272</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>1.176666004305858</v>
       </c>
+      <c r="BB72">
+        <v>1.176666004305858</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB73">
+        <v>0.8783323788356512</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB74">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB75">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB76">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB77">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB78">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB79">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB80">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>0.3527767454037387</v>
       </c>
+      <c r="BB81">
+        <v>0.6042915512474423</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.3527767454037387</v>
+      </c>
+      <c r="BB82">
+        <v>0.6042915512474423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.6042915512474423</v>
       </c>
     </row>
   </sheetData>
